--- a/document/General/Tasksheet.xlsx
+++ b/document/General/Tasksheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studying\FALL-2018\Capstone\document\General\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F97F5585-72C0-4CC1-9149-760744D38C8B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBDBEDD-56D3-497A-8858-BDA1093229CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>No.</t>
   </si>
@@ -134,6 +134,69 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>Report 2 - Software Project Management Plan</t>
+  </si>
+  <si>
+    <t>Name of this Capstone Project</t>
+  </si>
+  <si>
+    <t>Problem Abstract</t>
+  </si>
+  <si>
+    <t>Problem Overview</t>
+  </si>
+  <si>
+    <t>The Proposed System</t>
+  </si>
+  <si>
+    <t>Boundaries of the system</t>
+  </si>
+  <si>
+    <t>Future Plan</t>
+  </si>
+  <si>
+    <t>Development Environment</t>
+  </si>
+  <si>
+    <t>Hardware Development Environment Requirement</t>
+  </si>
+  <si>
+    <t>Software Development Environment Requirement</t>
+  </si>
+  <si>
+    <t>Project Organization</t>
+  </si>
+  <si>
+    <t>Software Process Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tools and Techniques </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Management Plan </t>
+  </si>
+  <si>
+    <t>Software development life cycle</t>
+  </si>
+  <si>
+    <t>Phase Detail</t>
+  </si>
+  <si>
+    <t>Task sheet</t>
+  </si>
+  <si>
+    <t>All Meeting Minutes</t>
+  </si>
+  <si>
+    <t>Coding Convention</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>Javascript</t>
   </si>
 </sst>
 </file>
@@ -311,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -366,6 +429,37 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -736,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H190"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -748,6 +842,7 @@
     <col min="5" max="5" width="7.5703125" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="54.75">
@@ -920,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="18" t="s">
@@ -936,205 +1031,428 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="4" t="s">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A12" s="27">
+        <v>2</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="5" t="s">
+      <c r="B70" s="2"/>
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B71" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="30">
-      <c r="A15" s="5">
-        <v>1</v>
-      </c>
-      <c r="B15" s="6" t="s">
+    </row>
+    <row r="72" spans="1:3" ht="30">
+      <c r="A72" s="5">
+        <v>1</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="7">
+      <c r="C72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="7">
         <v>2</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B73" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C73" s="7">
         <v>2</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="7">
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="7">
         <v>3</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B74" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C74" s="7">
         <v>3</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="7">
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="7">
         <v>4</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B75" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C75" s="7">
         <v>4</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="7">
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="7">
         <v>5</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B76" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C76" s="7">
         <v>5</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="4:8">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="4:8">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="H34" s="2"/>
     </row>
     <row r="176" spans="1:8" s="8" customFormat="1">
       <c r="A176"/>
@@ -1168,12 +1486,14 @@
     </row>
     <row r="190" spans="1:8" ht="15" customHeight="1"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
+    <mergeCell ref="A12:A34"/>
+    <mergeCell ref="B12:B34"/>
     <mergeCell ref="B2:B11"/>
     <mergeCell ref="A2:A11"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:F32" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:F34" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
